--- a/biology/Botanique/Ékigaïna/Ékigaïna.xlsx
+++ b/biology/Botanique/Ékigaïna/Ékigaïna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89kiga%C3%AFna</t>
+          <t>Ékigaïna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ékigaïna N[N 1] est un cépage noir français créé par l'INRA par métissage.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89kiga%C3%AFna</t>
+          <t>Ékigaïna</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Origine et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ékigaïna est un métis intraspécifique issu du croisement entre le tannat N et le cabernet sauvignon N. Il a été créé par les chercheurs de l'INRA Bordeaux. Il porte le numéro de clone 981 et a été homologué en 1991.
-Il n'est pas encore répandu. En 1994, il n'était planté que sur 2 ha[1].
+Il n'est pas encore répandu. En 1994, il n'était planté que sur 2 ha.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89kiga%C3%AFna</t>
+          <t>Ékigaïna</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bourgeonnement moyennement velu.
 Jeunes feuilles rougeâtres.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89kiga%C3%AFna</t>
+          <t>Ékigaïna</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Culturales[2]: Vigne de port demi-érigé, elle doit être conduite en taille longue et nécessite un palissage. Il présente une fertilité moyenne et régulière. Assez tardif, il permet d'éviter bien des épisodes de gelées printanières.
-Sensibilité aux maladies : Il ne présente pas de sensibilité particulière aux maladies, mais se montre assez sensible à la sécheresse[3]. Il est bien adapté aux vignobles du sud-ouest, particulièrement aux zones pyrénéennes de vin de pays. (il n'est pas homologué en AOC)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Culturales: Vigne de port demi-érigé, elle doit être conduite en taille longue et nécessite un palissage. Il présente une fertilité moyenne et régulière. Assez tardif, il permet d'éviter bien des épisodes de gelées printanières.
+Sensibilité aux maladies : Il ne présente pas de sensibilité particulière aux maladies, mais se montre assez sensible à la sécheresse. Il est bien adapté aux vignobles du sud-ouest, particulièrement aux zones pyrénéennes de vin de pays. (il n'est pas homologué en AOC)
 Technologiques' ': Il permet de vinifier des vins colorés, charpentés, typés, relativement peu acides.</t>
         </is>
       </c>
